--- a/biology/Botanique/Actinidia_polygama/Actinidia_polygama.xlsx
+++ b/biology/Botanique/Actinidia_polygama/Actinidia_polygama.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Actinidia polygama est une espèce dioïque de lianes de la famille des Actinidiaceae. L'espèce se trouve en Asie de l'est, plus particulièrement en Chine et au Japon. On la trouve principalement dans les zones boisées montagneuses du Japon.
 Du fait de certaines substances, certains chats sont comme drogués par les feuilles d'Actinidia polygama. Elles sont aussi utilisées comme sédatif pour les lions (dans certains zoos).
